--- a/revref_rating.xlsx
+++ b/revref_rating.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823C05D5-0FFE-4F44-9843-EFD82B2CA95A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C458A38-9B29-47FA-B22D-D467BC183B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17700" windowHeight="7785" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="p5" sheetId="12" r:id="rId6"/>
     <sheet name="p6" sheetId="13" r:id="rId7"/>
     <sheet name="p7" sheetId="14" r:id="rId8"/>
-    <sheet name="p8" sheetId="15" r:id="rId9"/>
+    <sheet name="p13" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
   <si>
     <t>header1</t>
   </si>
@@ -53,15 +53,11 @@
     <t>description</t>
   </si>
   <si>
-    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>広大moodle 教職員向け逆引きガイド _セクション</t>
+    <t>広大moodle 教職員向け逆引きガイド _評定表</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒロダイ </t>
     </rPh>
@@ -71,10 +67,16 @@
     <rPh sb="14" eb="16">
       <t>ギャクビ</t>
     </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒョウ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>広大moodle 教職員向け逆引きガイド _セクション</t>
+    <t>広大moodle 教職員向け逆引きガイド _評定表</t>
     <rPh sb="0" eb="2">
       <t>ヒロダイ</t>
     </rPh>
@@ -88,13 +90,479 @@
       <t>ギャクビ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コース内の課題や小テストの評定結果を一覧にしてみたい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学生ごとに課題や小テストの評定結果を一覧したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;作成中です&lt;/b&gt;</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評定表で評定結果を調整したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評定結果の全体をダウンロードしたい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Excelで調整した採点結果を評定表にアップロードしたい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評定表で特定の課題やテストを学生から隠したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評定表の項目の並び順を変更したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評定結果を素点ではなくA,B,Cなどで表示したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>moodle 上の学習データの評定を確認します</t>
+  </si>
+  <si>
+    <t>chartn</t>
+  </si>
+  <si>
+    <t>rating1_1.png</t>
+  </si>
+  <si>
+    <t>rating1_2.png</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="report"&gt;&lt;/a&gt;評定者レポート&lt;/h3&gt;評定者（学生）一覧が表示されます&lt;br&gt;参加者人数も表示されます &lt;br&gt;評定者一覧表の上部のコース名の横の－をクリックすると表示方法を変更できます</t>
+  </si>
+  <si>
+    <t>rating1_3.png</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="report"&gt;&lt;/a&gt;評定履歴&lt;/h3&gt;学生を選択して評定履歴を確認できます</t>
+  </si>
+  <si>
+    <t>rating1_4.png</t>
+  </si>
+  <si>
+    <t>rating1_5.png</t>
+  </si>
+  <si>
+    <t>rating1_6.png</t>
+  </si>
+  <si>
+    <t>rating1_7.png</t>
+  </si>
+  <si>
+    <t>rating1_8.png</t>
+  </si>
+  <si>
+    <t>rating4_1.png</t>
+  </si>
+  <si>
+    <t>rating4_2.png</t>
+  </si>
+  <si>
+    <t>評定表をインポートすることができます
+※ 必ずエクスポートした評定ファイルに基づいて作業してください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;評定表で特定の課題やテストを学生から隠す方法&lt;/h3&gt;</t>
+    <rPh sb="4" eb="7">
+      <t>ヒョウテイヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースに入り、コース名下の「評定」をクリックします</t>
+    <rPh sb="4" eb="5">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「評価者レポート」画面が表示され、学生一覧が表示されます
+画面に入りきらない場合、左にスクロールすると課題、小テストの評価が一覧で確認できます
+画面左上の「評価者レポートv」から表示方法を変更することができます
+以下で、主要な表示方法を解説します</t>
+    <rPh sb="73" eb="75">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="abstract"&gt;&lt;/a&gt;概要レポート&lt;/h3&gt;ユーザ毎、コース毎にレポートを表示します&lt;br&gt;ユーザを選択すると、選択したユーザの評点が一覧に表示されます&lt;br&gt;コース名をクリックすると、コースに登録されているユーザ毎に評価一覧が表示されます&lt;br&gt;※ コース名をクリックして表示される画面は「ユーザレポート」と同じものです</t>
+    <rPh sb="171" eb="172">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="singleview"&gt;&lt;/a&gt;シングルビュー&lt;/h3&gt;画面右上の「表示対象」から「ユーザー」をクリックし、「ユーザーを選択する」から学生を選択すると、選択した学生の各課題及び小テストにおける評点が表示されます&lt;br&gt;また、「表示対象」から「評定項目」をクリックし、「評定項目を選択する」から確認したい課題や小テストを選択すると、選択した課題（小テスト）における各学生の評点が表示されます</t>
+    <rPh sb="41" eb="43">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="147" eb="151">
+      <t>ヒョウテイコウモク</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="userreport"&gt;&lt;/a&gt;ユーザレポート&lt;/h3&gt;ユーザ毎にレポートを表示します&lt;br&gt;「ユーザレポートv」の右隣から、「ユーザ」もしくは「すべてのユーザ」を選択します&lt;br&gt;右図はユーザを選択した画面です</t>
+    <rPh sb="71" eb="73">
+      <t>ミギドナリ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ミギズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面左上の「評価者レポートv」から「インポート」を選択します</t>
+  </si>
+  <si>
+    <t>「インポート形式：」からインポートするデータの形式を選択します
+&lt;h4&gt;CSVファイル&lt;/h4&gt;インポートできるファイルはカンマ区切りのcsvファイルもしくはテキストファイルのみです
+&lt;h4&gt;スプレッドシートから張り付ける&lt;/h4&gt;Excelもしくはcsvファイルのデータをコピーしてデータを貼り付けアプロードします
+&lt;h4&gt;XML ファイル&lt;/h4&gt;XML ファイルのみインポートできます&lt;br&gt;
+リモートファイル URL は、学生情報等リモートサーバがある場合に設定します</t>
+    <rPh sb="6" eb="8">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面左上の「評価者レポートv」をクリックし、「評定表セットアップV」を選択します</t>
+    <rPh sb="23" eb="26">
+      <t>ヒョウテイヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定の課題やテストの「操作」欄にある&lt;b&gt;「編集」&lt;/b&gt;をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「非表示」をクリックすると学生から隠すことができます</t>
+    <rPh sb="13" eb="15">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評定を学生から隠す方法は、小テストとそれ以外のコンテンツで方法が異なります</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;評定表でテスト以外の特定の評定を学生から隠す場合&lt;/h4&gt;</t>
+    <rPh sb="4" eb="7">
+      <t>ヒョウテイヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;評定表で特定テストの評定を学生から隠す場合&lt;/h4&gt;</t>
+    <rPh sb="4" eb="7">
+      <t>ヒョウテイヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集モードをONにし、対象の小テストを開いてください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 小テスト名の下に表示されているメニューの「設定」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「レビューオプション」&lt;/b&gt;の「素点」のチェックを外すことで、評定を非表示にすることができます</t>
+    <rPh sb="29" eb="30">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「レビューオプション」&lt;/b&gt;の「学生の受験直後 (2分間)」「学生の受験後、小テストがクローズされるまで」から「素点」のチェックを外します</t>
+    <rPh sb="60" eb="62">
+      <t>ソテン</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>受験可能期限を設定している場合は、「小テストのクローズ後 (受験可能期限が設定されており、その期限を過ぎた後)」の「素点」のチェックも外します</t>
+    <rPh sb="0" eb="4">
+      <t>ジュケンカノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ソテン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「保存してコースに戻る」をクリックします</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +605,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック "/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック "/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,32 +642,56 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -205,9 +711,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -245,7 +751,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -351,7 +857,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,7 +999,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -507,51 +1013,49 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="7"/>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -564,104 +1068,182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="66">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="36">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="9"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="44.4">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="62.4">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9"/>
+      <c r="C18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="36">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -676,103 +1258,105 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -787,103 +1371,105 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -898,103 +1484,105 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1009,103 +1597,126 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="36">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="66">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1117,107 +1728,161 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B5C86B-3DF3-4C25-B4F9-254CDB6683A6}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" s="12" customFormat="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="12" customFormat="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="12" customFormat="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B14" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="12" customFormat="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" s="12" customFormat="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26.4">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B20" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26.4">
       <c r="A21" s="1"/>
+      <c r="B21" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1231,103 +1896,105 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1341,104 +2008,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B381338-A85F-4BD4-8AB8-3FC08C5D562D}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1449,21 +2116,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1716,21 +2374,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1755,9 +2419,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_rating.xlsx
+++ b/revref_rating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C458A38-9B29-47FA-B22D-D467BC183B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A05EBE3-B836-4D56-80B6-AC961E1F5BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="4860" yWindow="384" windowWidth="17796" windowHeight="11676" firstSheet="1" activeTab="8" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
   <si>
     <t>header1</t>
   </si>
@@ -554,6 +554,176 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rating5_1.png</t>
+  </si>
+  <si>
+    <t>rating5_2.png</t>
+  </si>
+  <si>
+    <t>評定表をエクスポートします
+評定表のアップロードの際、エクスポートしたファイルを元に作成します
+ダウンロードするファイルタイプを選択できます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面左上の「評価者レポートv」から「エクスポート」を選択します</t>
+  </si>
+  <si>
+    <t>「エクスポート形式：」からエクスポートするデータの形式を選択します&lt;h4&gt;OpenDocument スプレッドシート、プレインテキストファイル、Excel スプレッドシート&lt;/h4&gt;すべて右の画面になります&lt;br&gt;ダウンロードに必要な項目にチェックを入れ、「ダウンロード」ボタンをクリックすると、ダウンロードします&lt;h4&gt;XML ファイル&lt;/h4&gt;XML ファイルをエクスポートします※ 小テストや課題に ID ナンバーがない場合はエクスポートできません</t>
+    <rPh sb="94" eb="95">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動したい項目の左に表示されている「移動」（矢印マーク）をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヤジルシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目間に点線の四角が表示されるため、移動したい場所の四角をクリックする</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンセン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「変更を保存する」をクリックする</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;評定文字&lt;/h3&gt;評定文字は、A,B,C などの文字グレードによる成績評価に使用します&lt;br&gt;使用する文字と対応する評点の範囲を変更することができます&lt;br&gt;変更した設定はこのコースのみで有効になります&lt;br&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;評定文字を設定する方法&lt;/h4&gt;</t>
+    <rPh sb="4" eb="8">
+      <t>ヒョウテイモジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;表示を文字に変更する方法&lt;/h4&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面左上の「評価者レポートv」から「評定文字」を選択します</t>
+  </si>
+  <si>
+    <t>「編集」ボタンをクリックします</t>
+  </si>
+  <si>
+    <t>「サイトデフォルトをオーバライドする」にチェックすると編集可能になります。</t>
+  </si>
+  <si>
+    <t>編集したい箇所を変更し、「変更を保存」をクリックして完了してください</t>
+  </si>
+  <si>
+    <t>画面左上の「評定文字v」（または「評定者レポート」）から「評定セットアップv」を選択します</t>
+    <rPh sb="17" eb="20">
+      <t>ヒョウテイシャ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;評定項目&lt;/b&gt;の「さらに表示する…」をクリックします</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評定表示タイプを「文字」に変更します</t>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「変更を保存する」をクリックします</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -642,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,8 +844,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -689,9 +883,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,10 +1318,10 @@
       <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1139,10 +1330,10 @@
       <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1157,28 +1348,28 @@
       <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1188,15 +1379,15 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="44.4">
+    <row r="15" spans="1:4" ht="39.6">
       <c r="A15" s="1"/>
       <c r="B15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1206,37 +1397,37 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="62.4">
+    <row r="17" spans="1:4" ht="52.8">
       <c r="A17" s="1"/>
       <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="36">
+    <row r="19" spans="1:4" ht="26.4">
       <c r="A19" s="1"/>
       <c r="B19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1483,9 +1674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B4126F-427D-438D-81C0-4E21B438A36E}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
@@ -1529,28 +1718,49 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="54">
       <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="67.2">
       <c r="A10" s="1"/>
+      <c r="B10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
@@ -1597,7 +1807,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1644,45 +1854,45 @@
     </row>
     <row r="7" spans="1:4" ht="36">
       <c r="A7" s="1"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66">
       <c r="A10" s="1"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1730,7 +1940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B5C86B-3DF3-4C25-B4F9-254CDB6683A6}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
@@ -1774,21 +1986,21 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" s="12" customFormat="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="12" customFormat="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="12" customFormat="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
@@ -1800,7 +2012,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="4"/>
@@ -1816,59 +2028,59 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="12" customFormat="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" s="12" customFormat="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1896,7 +2108,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1943,35 +2155,47 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
+      <c r="B7" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
+      <c r="B10" s="15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
+      <c r="B11" s="19" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
+      <c r="B13" s="17"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -2052,61 +2276,91 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="36">
       <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="B7" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="20" customFormat="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="24"/>
+    </row>
+    <row r="9" spans="1:4" s="20" customFormat="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="24" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
+      <c r="B10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
+      <c r="B11" s="21" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
+      <c r="B12" s="24" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
+      <c r="B13" s="24" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
+      <c r="B14" s="24" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2116,12 +2370,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2374,27 +2637,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2419,12 +2676,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_rating.xlsx
+++ b/revref_rating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A05EBE3-B836-4D56-80B6-AC961E1F5BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0D62F5-0B2D-4DC2-B729-D707CEFC085C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="384" windowWidth="17796" windowHeight="11676" firstSheet="1" activeTab="8" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="180" yWindow="300" windowWidth="18456" windowHeight="11676" firstSheet="1" activeTab="7" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -602,31 +602,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>項目間に点線の四角が表示されるため、移動したい場所の四角をクリックする</t>
-    <rPh sb="0" eb="3">
-      <t>コウモクカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テンセン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「変更を保存する」をクリックする</t>
     <rPh sb="1" eb="3">
       <t>ヘンコウ</t>
@@ -724,6 +699,31 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目間に点線の四角が表示されるため、移動したい場所の四角をクリックします</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンセン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シカク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -812,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,46 +840,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1720,45 +1680,45 @@
     </row>
     <row r="7" spans="1:4" ht="54">
       <c r="A7" s="1"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="67.2">
+    <row r="10" spans="1:4" ht="52.8">
       <c r="A10" s="1"/>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2107,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AD47A1-F5EF-4704-9C65-E978BFF1C35C}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2155,7 +2115,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="4"/>
@@ -2163,7 +2123,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="4"/>
@@ -2171,7 +2131,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="4"/>
@@ -2179,23 +2139,23 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="15" t="s">
-        <v>59</v>
+      <c r="B10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="19" t="s">
-        <v>60</v>
+      <c r="B11" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="17"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="17"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -2232,7 +2192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B381338-A85F-4BD4-8AB8-3FC08C5D562D}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
@@ -2278,23 +2238,23 @@
     </row>
     <row r="7" spans="1:4" ht="36">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="10" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="20" customFormat="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="24"/>
-    </row>
-    <row r="9" spans="1:4" s="20" customFormat="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="24" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="4"/>
@@ -2302,26 +2262,26 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="21" t="s">
-        <v>64</v>
+      <c r="B11" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="24" t="s">
-        <v>65</v>
+      <c r="B12" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="24" t="s">
-        <v>66</v>
+      <c r="B13" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="24" t="s">
-        <v>67</v>
+      <c r="B14" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2329,37 +2289,37 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="24" t="s">
-        <v>63</v>
+      <c r="B16" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="21" t="s">
-        <v>68</v>
+      <c r="B17" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2370,21 +2330,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2637,21 +2588,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2676,9 +2633,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_rating.xlsx
+++ b/revref_rating.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0D62F5-0B2D-4DC2-B729-D707CEFC085C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBD65CC-FE0C-4FC6-B340-24B32015F49E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="300" windowWidth="18456" windowHeight="11676" firstSheet="1" activeTab="7" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" firstSheet="1" activeTab="6" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="74">
   <si>
     <t>header1</t>
   </si>
@@ -724,6 +724,38 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定の課題の「操作」欄にある&lt;b&gt;「編集」&lt;/b&gt;をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースを開き、コース名下の「評定」をクリックします</t>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -862,9 +894,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -902,7 +934,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1008,7 +1040,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1150,7 +1182,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1164,10 +1196,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.3984375" customWidth="1"/>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1223,9 +1255,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1285,7 +1317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="66">
+    <row r="9" spans="1:4" ht="67.5">
       <c r="A9" s="1"/>
       <c r="B9" s="8" t="s">
         <v>35</v>
@@ -1303,7 +1335,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="36">
+    <row r="11" spans="1:4" ht="37.5">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
         <v>22</v>
@@ -1339,7 +1371,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="39.6">
+    <row r="15" spans="1:4" ht="54">
       <c r="A15" s="1"/>
       <c r="B15" s="9" t="s">
         <v>36</v>
@@ -1357,7 +1389,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="52.8">
+    <row r="17" spans="1:4" ht="54">
       <c r="A17" s="1"/>
       <c r="B17" s="9" t="s">
         <v>37</v>
@@ -1379,7 +1411,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="26.4">
+    <row r="19" spans="1:4" ht="27">
       <c r="A19" s="1"/>
       <c r="B19" s="9" t="s">
         <v>38</v>
@@ -1412,9 +1444,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1525,9 +1557,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1636,9 +1668,9 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1678,7 +1710,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="54">
+    <row r="7" spans="1:4" ht="56.25">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>55</v>
@@ -1710,7 +1742,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="52.8">
+    <row r="10" spans="1:4" ht="54">
       <c r="A10" s="1"/>
       <c r="B10" s="9" t="s">
         <v>57</v>
@@ -1770,9 +1802,9 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1812,7 +1844,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="36">
+    <row r="7" spans="1:4" ht="37.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>32</v>
@@ -1844,7 +1876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="66">
+    <row r="10" spans="1:4" ht="67.5">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>40</v>
@@ -1900,13 +1932,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B5C86B-3DF3-4C25-B4F9-254CDB6683A6}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1973,7 +2005,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
@@ -1989,7 +2021,7 @@
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2026,13 +2058,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="26.4">
+    <row r="20" spans="1:2" ht="27">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="26.4">
+    <row r="21" spans="1:2" ht="27">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>51</v>
@@ -2067,13 +2099,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AD47A1-F5EF-4704-9C65-E978BFF1C35C}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2194,9 +2226,9 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2236,7 +2268,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="36">
+    <row r="7" spans="1:4" ht="37.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>60</v>
@@ -2330,15 +2362,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2587,6 +2610,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2606,14 +2638,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2632,6 +2656,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>

--- a/revref_rating.xlsx
+++ b/revref_rating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBD65CC-FE0C-4FC6-B340-24B32015F49E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE13C3F-CF70-4A99-A400-E6A9BE57332A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" firstSheet="1" activeTab="6" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" firstSheet="1" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
   <si>
     <t>header1</t>
   </si>
@@ -97,13 +97,6 @@
   </si>
   <si>
     <t>学生ごとに課題や小テストの評定結果を一覧したい</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;作成中です&lt;/b&gt;</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイチュウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -756,6 +749,375 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;学生ごとに課題や小テストの評定結果を一覧で表示する方法&lt;/h3&gt;</t>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;評定結果の全体をダウンロードする方法&lt;/h3&gt;</t>
+    <rPh sb="20" eb="22">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Excelで調整した採点結果を評定表にアップロードする方法&lt;/h3&gt;</t>
+    <rPh sb="31" eb="33">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;評定表で評定結果を調整する方法&lt;/h3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースを開きます</t>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に表示されている「評定」をクリックします</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評定者レポートは全学生と全項目が表示されます</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウテイシャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調整したい学生の各項目に表示されている入力欄を変更することで評定結果を変更できます</t>
+    <rPh sb="0" eb="2">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力欄が非活性になっている場合は、変更したい評点の上に表示されている歯車のマーク（評定を編集する）をクリックします&lt;br&gt;
+「ロック」のチェックマークを外し、「変更を保存する」をクリックすることで、変更できるようになります</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヒカッセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ハグルマ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学生ごとに評定結果を表示したい場合は、学生名の右横に表示されている表のマーク（○○(学生名)の評点）をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ガクセイメイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示する学生を変更したい場合は、「ユーザレポート」または「シングルビュー」の横に表示されている学生名をクリックすると他の学生を選択できます</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>ガクセイメイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学生ごとに評定結果を表示し評定結果を編集したい場合は、学生名の右横に表示されている鉛筆のマーク（○○(学生名のシングルビュー)）をクリックします&lt;br&gt;
+活動（小テストや課題）経由で一度評定しているものは、グレーアウトされて編集できないようになっています&lt;br&gt;
+評定を上書きする場合は、「オーバーライド」にチェックを入れてください&lt;br&gt;
+編集が終わったら「保存」をクリックします</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>エンピツ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストや課題の評点を評定表の「評定レポート」から編集することができます
+学生ごとに表示して調整したい場合は、&lt;a href="p2.html"&gt;学生ごとに課題や小テストの評定結果を一覧したい&lt;/a&gt;を参照してください</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヒョウテイヒョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1251,8 +1613,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D21"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="67.5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="37.5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="54">
+      <c r="A15" s="1"/>
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="54">
+      <c r="A17" s="1"/>
+      <c r="B17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27">
+      <c r="A19" s="1"/>
+      <c r="B19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABB89B-389D-4E53-86E8-1C489CE9D7CA}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1270,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1299,134 +1848,71 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="67.5">
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="37.5">
+      <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="67.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="54">
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" ht="54">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
-      <c r="B17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="27">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
-      <c r="B19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:1">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1436,9 +1922,276 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABB89B-389D-4E53-86E8-1C489CE9D7CA}">
-  <dimension ref="A1:D21"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05E85A-61D0-40F4-AA01-CFF3E660149A}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="40.5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B4126F-427D-438D-81C0-4E21B438A36E}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="56.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="54">
+      <c r="A11" s="1"/>
+      <c r="B11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A9EDB-E219-4750-9E93-E48F3540F6B4}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -1459,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1489,273 +2242,52 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="37.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05E85A-61D0-40F4-AA01-CFF3E660149A}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B4126F-427D-438D-81C0-4E21B438A36E}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="56.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="8" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="54">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="9" t="s">
-        <v>57</v>
+      <c r="B10" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="67.5">
       <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
@@ -1787,139 +2319,8 @@
     <row r="21" spans="1:1">
       <c r="A21" s="1"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A9EDB-E219-4750-9E93-E48F3540F6B4}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="37.5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="67.5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1932,7 +2333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B5C86B-3DF3-4C25-B4F9-254CDB6683A6}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
@@ -1951,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1981,13 +2382,13 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1997,7 +2398,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
@@ -2005,7 +2406,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
@@ -2013,7 +2414,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
@@ -2021,13 +2422,13 @@
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2037,43 +2438,43 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2118,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2148,7 +2549,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2156,7 +2557,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -2164,7 +2565,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -2172,13 +2573,13 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2241,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2271,7 +2672,7 @@
     <row r="7" spans="1:4" ht="37.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2281,13 +2682,13 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
@@ -2295,25 +2696,25 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2322,36 +2723,36 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2362,6 +2763,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2610,34 +3038,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2654,23 +3074,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/revref_rating.xlsx
+++ b/revref_rating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE13C3F-CF70-4A99-A400-E6A9BE57332A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00BDCD1-8966-4D35-AF55-0DAB6498D123}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" firstSheet="1" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -53,10 +53,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>アカウント</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>広大moodle 教職員向け逆引きガイド _評定表</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒロダイ </t>
@@ -1119,6 +1115,10 @@
     <rPh sb="101" eb="103">
       <t>サンショウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評定表</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1554,9 +1554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38953DD-C77F-4062-989A-FDF98227C4BA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1569,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1585,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1613,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
@@ -1630,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1646,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1660,7 +1658,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1668,25 +1666,25 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="67.5">
       <c r="A9" s="1"/>
       <c r="B9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1698,13 +1696,13 @@
     <row r="11" spans="1:4" ht="37.5">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1716,13 +1714,13 @@
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1734,13 +1732,13 @@
     <row r="15" spans="1:4" ht="54">
       <c r="A15" s="1"/>
       <c r="B15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1752,35 +1750,35 @@
     <row r="17" spans="1:4" ht="54">
       <c r="A17" s="1"/>
       <c r="B17" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="9"/>
       <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27">
       <c r="A19" s="1"/>
       <c r="B19" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1819,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1835,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1849,7 +1847,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -1857,7 +1855,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -1865,7 +1863,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1873,19 +1871,19 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="67.5">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1945,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1961,7 +1959,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1975,7 +1973,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -1983,7 +1981,7 @@
     <row r="8" spans="1:4" ht="40.5">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -1991,7 +1989,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1999,25 +1997,25 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2072,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2088,7 +2086,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2102,13 +2100,13 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="56.25">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2116,37 +2114,37 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="54">
       <c r="A11" s="1"/>
       <c r="B11" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2212,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2228,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2242,13 +2240,13 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="37.5">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2256,37 +2254,37 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="67.5">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2352,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2368,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2382,13 +2380,13 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2398,7 +2396,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
@@ -2406,7 +2404,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
@@ -2414,7 +2412,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
@@ -2422,13 +2420,13 @@
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2438,43 +2436,43 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2519,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2535,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2549,7 +2547,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2557,7 +2555,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -2565,7 +2563,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -2573,13 +2571,13 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2642,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2658,7 +2656,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2672,7 +2670,7 @@
     <row r="7" spans="1:4" ht="37.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2682,13 +2680,13 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
@@ -2696,25 +2694,25 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2723,36 +2721,36 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2763,33 +2761,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -3038,26 +3009,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3074,4 +3053,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>